--- a/DataBase/Templates/FreqAccTestTemplate.xlsx
+++ b/DataBase/Templates/FreqAccTestTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaswa\PycharmProjects\ATEC1\DataBase\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3345D-687C-494E-B0BE-3BEB29F7668F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF6D139-0A66-4C48-B78E-08C34BA10302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>S.No</t>
   </si>
@@ -66,16 +66,7 @@
     <t>RWR</t>
   </si>
   <si>
-    <t>Test Description :</t>
-  </si>
-  <si>
     <t>Radiation</t>
-  </si>
-  <si>
-    <t>System Mode:</t>
-  </si>
-  <si>
-    <t>Measurement Type:</t>
   </si>
   <si>
     <t>User Name</t>
@@ -88,14 +79,23 @@
 </t>
   </si>
   <si>
-    <t>Signal Category</t>
-  </si>
-  <si>
     <t>PULSE/CW</t>
   </si>
   <si>
+    <t>Test Description        :</t>
+  </si>
+  <si>
+    <t>System Mode                   :</t>
+  </si>
+  <si>
+    <t>Measurement Type            :</t>
+  </si>
+  <si>
+    <t>Signal Cat</t>
+  </si>
+  <si>
     <r>
-      <t>Step Frequency</t>
+      <t xml:space="preserve">Start Frequency   </t>
     </r>
     <r>
       <rPr>
@@ -109,7 +109,7 @@
   </si>
   <si>
     <r>
-      <t>Start Frequency</t>
+      <t xml:space="preserve">Stop Frequency   </t>
     </r>
     <r>
       <rPr>
@@ -123,7 +123,7 @@
   </si>
   <si>
     <r>
-      <t>Stop Frequency</t>
+      <t xml:space="preserve">Step Frequency   </t>
     </r>
     <r>
       <rPr>
@@ -137,71 +137,7 @@
   </si>
   <si>
     <r>
-      <t>Position Angle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Set Power</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dBm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PRI</t>
+      <t xml:space="preserve">Pulse Width     </t>
     </r>
     <r>
       <rPr>
@@ -215,7 +151,7 @@
   </si>
   <si>
     <r>
-      <t>Pulse Width</t>
+      <t xml:space="preserve">Set Power        </t>
     </r>
     <r>
       <rPr>
@@ -224,7 +160,21 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(µs)</t>
+      <t>(dBm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Position Angle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(°)</t>
     </r>
   </si>
 </sst>
@@ -466,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -476,56 +426,74 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -533,12 +501,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -566,12 +528,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,14 +546,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,347 +838,327 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="6.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="37">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="21"/>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
         <v>2</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>3</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="32">
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="C2:H2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
